--- a/Data/results/filtered_ngpp.xlsx
+++ b/Data/results/filtered_ngpp.xlsx
@@ -613,7 +613,7 @@
         <v>-71.482719</v>
       </c>
       <c r="G4" t="n">
-        <v>672</v>
+        <v>336</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -639,7 +639,7 @@
         <v>-72.64801799999999</v>
       </c>
       <c r="G5" t="n">
-        <v>492.6</v>
+        <v>246.3</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -795,7 +795,7 @@
         <v>-70.964961</v>
       </c>
       <c r="G11" t="n">
-        <v>1686</v>
+        <v>843</v>
       </c>
       <c r="H11" t="s">
         <v>9</v>
@@ -847,7 +847,7 @@
         <v>-71.42581</v>
       </c>
       <c r="G13" t="n">
-        <v>1594</v>
+        <v>797</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -899,7 +899,7 @@
         <v>-71.079691</v>
       </c>
       <c r="G15" t="n">
-        <v>484.6</v>
+        <v>242.3</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -951,7 +951,7 @@
         <v>-71.31238500000001</v>
       </c>
       <c r="G17" t="n">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s">
         <v>9</v>
@@ -1002,9 +1002,7 @@
       <c r="F19" t="n">
         <v>-71.322889</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
         <v>9</v>
       </c>
@@ -1028,9 +1026,7 @@
       <c r="F20" t="n">
         <v>-71.31238500000001</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1129,7 @@
         <v>-72.596598</v>
       </c>
       <c r="G24" t="n">
-        <v>3290</v>
+        <v>658</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1393,7 +1389,7 @@
         <v>-70.966481</v>
       </c>
       <c r="G34" t="n">
-        <v>288.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1471,7 +1467,7 @@
         <v>-70.87820000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>2022</v>
+        <v>674</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1523,7 +1519,7 @@
         <v>-73.12193000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>4830</v>
+        <v>805</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -1575,7 +1571,7 @@
         <v>-70.377106</v>
       </c>
       <c r="G41" t="n">
-        <v>1107</v>
+        <v>553.5</v>
       </c>
       <c r="H41" t="s">
         <v>9</v>
